--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="522" activeTab="1"/>
+    <workbookView windowHeight="17655" tabRatio="522" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -17,7 +17,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">minions!$A$1:$BJ$5</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4768,16 +4781,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4845,37 +4858,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4889,57 +4905,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4959,15 +4937,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4981,16 +4967,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5047,13 +5053,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5065,55 +5143,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5131,7 +5161,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5143,25 +5203,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5173,49 +5221,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5268,30 +5274,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -5310,8 +5292,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5346,6 +5337,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -5356,169 +5371,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5538,7 +5544,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5623,13 +5629,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5638,10 +5644,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5667,12 +5673,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="51" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="51" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1">
@@ -5681,52 +5686,52 @@
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
@@ -7076,17 +7081,17 @@
   <sheetPr/>
   <dimension ref="A1:AS9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="30" style="57" customWidth="1"/>
     <col min="2" max="2" width="26.875" style="57" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="57" customWidth="1"/>
+    <col min="3" max="3" width="30.125" style="57" customWidth="1"/>
     <col min="4" max="4" width="17" style="57" customWidth="1"/>
     <col min="5" max="5" width="10.25" style="57" customWidth="1"/>
     <col min="6" max="6" width="21.625" style="57" customWidth="1"/>
@@ -7132,7 +7137,7 @@
   </cols>
   <sheetData>
     <row r="1" s="56" customFormat="1" ht="29" customHeight="1" spans="1:45">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="56" t="s">
         <v>124</v>
       </c>
       <c r="B1" s="56" t="s">
@@ -7141,183 +7146,171 @@
       <c r="C1" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="58">
+      <c r="D1" s="56">
         <v>1</v>
       </c>
-      <c r="E1" s="58">
+      <c r="E1" s="56">
         <v>2</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="V1" s="58" t="s">
+      <c r="V1" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="W1" s="58" t="s">
+      <c r="W1" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="X1" s="58" t="s">
+      <c r="X1" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="Y1" s="58" t="s">
+      <c r="Y1" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="58" t="s">
+      <c r="AJ1" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="AK1" s="58" t="s">
+      <c r="AK1" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="AL1" s="58" t="s">
+      <c r="AL1" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="AM1" s="58" t="s">
+      <c r="AM1" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="AN1" s="58" t="s">
+      <c r="AN1" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="AO1" s="58" t="s">
+      <c r="AO1" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="AP1" s="58" t="s">
+      <c r="AP1" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="AQ1" s="58" t="s">
+      <c r="AQ1" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="AR1" s="58" t="s">
+      <c r="AR1" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="AS1" s="58" t="s">
+      <c r="AS1" s="56" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="2" s="56" customFormat="1" ht="25" customHeight="1" spans="1:45">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J2" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="L2" s="60" t="s">
+      <c r="L2" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="N2" s="60" t="s">
+      <c r="N2" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="O2" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="P2" s="60" t="s">
+      <c r="P2" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="Q2" s="60" t="s">
+      <c r="Q2" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="R2" s="60" t="s">
+      <c r="R2" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="S2" s="58" t="s">
+      <c r="S2" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="T2" s="58" t="s">
+      <c r="T2" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="U2" s="58" t="s">
+      <c r="U2" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="V2" s="58" t="s">
+      <c r="V2" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="W2" s="58" t="s">
+      <c r="W2" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="X2" s="58" t="s">
+      <c r="X2" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="Y2" s="58" t="s">
+      <c r="Y2" s="56" t="s">
         <v>178</v>
       </c>
       <c r="Z2" s="56">
@@ -7338,7 +7331,7 @@
       <c r="AE2" s="56">
         <v>6</v>
       </c>
-      <c r="AF2" s="58">
+      <c r="AF2" s="56">
         <v>7</v>
       </c>
       <c r="AG2" s="56">
@@ -7347,96 +7340,90 @@
       <c r="AH2" s="56">
         <v>9</v>
       </c>
-      <c r="AI2" s="58" t="s">
+      <c r="AI2" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="AJ2" s="58" t="s">
+      <c r="AJ2" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="AK2" s="58" t="s">
+      <c r="AK2" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="AL2" s="58" t="s">
+      <c r="AL2" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="AM2" s="58" t="s">
+      <c r="AM2" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="AN2" s="58" t="s">
+      <c r="AN2" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="AO2" s="58" t="s">
+      <c r="AO2" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="AP2" s="58" t="s">
+      <c r="AP2" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="AQ2" s="58" t="s">
+      <c r="AQ2" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="AR2" s="58" t="s">
+      <c r="AR2" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="AS2" s="58" t="s">
+      <c r="AS2" s="56" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" ht="29.25" customHeight="1" spans="1:40">
+    <row r="3" ht="20" customHeight="1" spans="1:40">
       <c r="A3" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
       <c r="H3" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61" t="s">
+      <c r="J3" s="60"/>
+      <c r="K3" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="L3" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="N3" s="61" t="s">
+      <c r="N3" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="O3" s="61" t="s">
+      <c r="O3" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="P3" s="61" t="s">
+      <c r="P3" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="Q3" s="61" t="s">
+      <c r="Q3" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="R3" s="61" t="s">
+      <c r="R3" s="60" t="s">
         <v>200</v>
       </c>
       <c r="S3" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="T3" s="57"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="57"/>
+      <c r="U3" s="58"/>
       <c r="W3" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
       <c r="Z3" s="57" t="s">
         <v>203</v>
       </c>
@@ -7449,14 +7436,9 @@
       <c r="AC3" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="62" t="s">
+      <c r="AF3" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="57"/>
       <c r="AJ3" s="57" t="s">
         <v>208</v>
       </c>
@@ -7473,7 +7455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" ht="17" customHeight="1" spans="1:40">
       <c r="A4" s="57" t="s">
         <v>210</v>
       </c>
@@ -9636,7 +9618,7 @@
       <c r="BH20" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BJ5">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BJ5" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="X3">
